--- a/median_rent_by_planning_area.xlsx
+++ b/median_rent_by_planning_area.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Median Rent</t>
   </si>
@@ -22,19 +22,112 @@
     <t>Planning Area</t>
   </si>
   <si>
+    <t>BEDOK</t>
+  </si>
+  <si>
+    <t>BISHAN</t>
+  </si>
+  <si>
+    <t>BUKIT MERAH</t>
+  </si>
+  <si>
+    <t>BUKIT PANJANG</t>
+  </si>
+  <si>
+    <t>BUKIT TIMAH</t>
+  </si>
+  <si>
+    <t>CENTRAL WATER CATCHMENT</t>
+  </si>
+  <si>
     <t>CHANGI</t>
   </si>
   <si>
+    <t>CHOA CHU KANG</t>
+  </si>
+  <si>
+    <t>CLEMENTI</t>
+  </si>
+  <si>
     <t>DOWNTOWN CORE</t>
   </si>
   <si>
+    <t>GEYLANG</t>
+  </si>
+  <si>
+    <t>HOUGANG</t>
+  </si>
+  <si>
+    <t>JURONG EAST</t>
+  </si>
+  <si>
+    <t>JURONG WEST</t>
+  </si>
+  <si>
     <t>KALLANG</t>
   </si>
   <si>
+    <t>MANDAI</t>
+  </si>
+  <si>
+    <t>MARINA SOUTH</t>
+  </si>
+  <si>
+    <t>MARINE PARADE</t>
+  </si>
+  <si>
+    <t>MUSEUM</t>
+  </si>
+  <si>
+    <t>NOVENA</t>
+  </si>
+  <si>
+    <t>ORCHARD</t>
+  </si>
+  <si>
+    <t>OUTRAM</t>
+  </si>
+  <si>
+    <t>PASIR RIS</t>
+  </si>
+  <si>
+    <t>PIONEER</t>
+  </si>
+  <si>
+    <t>PUNGGOL</t>
+  </si>
+  <si>
     <t>QUEENSTOWN</t>
   </si>
   <si>
+    <t>ROCHOR</t>
+  </si>
+  <si>
+    <t>SEMBAWANG</t>
+  </si>
+  <si>
+    <t>SENGKANG</t>
+  </si>
+  <si>
     <t>SERANGOON</t>
+  </si>
+  <si>
+    <t>SINGAPORE RIVER</t>
+  </si>
+  <si>
+    <t>SOUTHERN ISLANDS</t>
+  </si>
+  <si>
+    <t>TAMPINES</t>
+  </si>
+  <si>
+    <t>TOA PAYOH</t>
+  </si>
+  <si>
+    <t>WOODLANDS</t>
+  </si>
+  <si>
+    <t>YISHUN</t>
   </si>
 </sst>
 </file>
@@ -392,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>182.05</v>
+        <v>14.92056856187291</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -419,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>75.34</v>
+        <v>5.459866220735787</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -427,7 +520,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>46.32</v>
+        <v>14.53579834014617</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -435,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>93.66</v>
+        <v>15.23759754738016</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -443,7 +536,255 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>328.91</v>
+        <v>9.309968413229285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>12.66815310293571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>16.91285767372724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>22.53019323671498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>10.25610058218754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>11.54905239687849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>8.743961352657005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>13.0497491638796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>21.05490523968785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>27.70717205499815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>6.224850029197856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>10.49981419546637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>14.64882943143813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>10.51653660349313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>10.75204384986994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>12.3713303604608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>12.75176514306949</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>7.868202650811347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>9.204756596060944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>10.11426978818283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>24.85042735042735</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>9.509874183787227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>8.330894648829432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>12.07543664065403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>18.36306205871423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>24.55902390685</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>8.311700376917768</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>7.99981419546637</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>14.95076179858789</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>10.44267930137496</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>22.54830917874396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>22.27269912052521</v>
       </c>
     </row>
   </sheetData>
